--- a/src/main/resources/exportTemplate.xlsx
+++ b/src/main/resources/exportTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\Documents\EclipseProject\Excel_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Антон\git\NetcrackerProject\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,30 +25,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Пол</t>
+    <t>Пол ауд-рии</t>
   </si>
   <si>
-    <t>Возраст</t>
+    <t>Возраст ауд-рии</t>
   </si>
   <si>
-    <t>Город</t>
+    <t>Города ауд-рии</t>
   </si>
   <si>
-    <t>Активность</t>
+    <t>Кол-во забаненных</t>
   </si>
   <si>
-    <t>Бан</t>
+    <t>Активность ауд-рии</t>
+  </si>
+  <si>
+    <t>Список популярных групп</t>
+  </si>
+  <si>
+    <t>Место</t>
+  </si>
+  <si>
+    <t>Название сообщества</t>
+  </si>
+  <si>
+    <t>Аудитория</t>
+  </si>
+  <si>
+    <t>Ц/Аудитория</t>
+  </si>
+  <si>
+    <t>URL псевдоним</t>
+  </si>
+  <si>
+    <t>Дата сбора</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -86,23 +160,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF62983E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -121,10 +439,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -135,11 +453,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -163,6 +481,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -172,14 +510,135 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D26B-4EA4-AD8E-36E0719826F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D26B-4EA4-AD8E-36E0719826F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D26B-4EA4-AD8E-36E0719826F9}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -187,15 +646,26 @@
             <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$B$36:$B$38</c:f>
+              <c:f>Лист2!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -204,7 +674,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$C$36:$C$38</c:f>
+              <c:f>Лист2!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -218,9 +688,10 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
@@ -228,13 +699,25 @@
         </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -247,9 +730,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -265,6 +748,37 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -290,12 +804,13 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -304,11 +819,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -318,93 +833,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ru-RU"/>
-              <a:t>Возраст</a:t>
+              <a:t>Возраст аудитории</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> аудитории</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>Лист1!$E$36:$E$43</c:f>
-              <c:numCache>
-                <c:formatCode>@</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$F$36:$F$43</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-32DD-4187-A4AE-EBB6B79C9139}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -419,11 +852,395 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-D48C-4AFB-8F29-9FF828A49811}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="62000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-D48C-4AFB-8F29-9FF828A49811}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-D48C-4AFB-8F29-9FF828A49811}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:tint val="93000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-ABA8-4158-90C4-8CBD0498C105}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="92000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-ABA8-4158-90C4-8CBD0498C105}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-ABA8-4158-90C4-8CBD0498C105}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="61000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-ABA8-4158-90C4-8CBD0498C105}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="45000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-ABA8-4158-90C4-8CBD0498C105}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>@</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AE0-43FD-8186-90F0BF988232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="1"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -439,6 +1256,37 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -464,10 +1312,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -478,11 +1326,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -511,11 +1359,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -539,17 +1387,172 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-B015-4915-B14D-0E8E32062A7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-B015-4915-B14D-0E8E32062A7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-B015-4915-B14D-0E8E32062A7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$H$36:$H$41</c:f>
+              <c:f>Лист2!$H$3:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -558,7 +1561,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$36:$I$41</c:f>
+              <c:f>Лист2!$I$3:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -567,96 +1570,83 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-369C-4BBD-88BB-50208AC41A98}"/>
+              <c16:uniqueId val="{00000000-3AE0-43FD-8186-90F0BF988232}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="461316480"/>
-        <c:axId val="461316808"/>
+        <c:gapWidth val="0"/>
+        <c:axId val="548460016"/>
+        <c:axId val="548459032"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="461316480"/>
+      <c:valAx>
+        <c:axId val="548459032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="461316808"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="461316808"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -673,9 +1663,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -686,10 +1676,87 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="461316480"/>
+        <c:crossAx val="548460016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="548460016"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548459032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -703,14 +1770,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -742,12 +1825,13 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -756,11 +1840,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -789,11 +1873,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -813,39 +1897,164 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:dPt>
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6">
+                  <a:tint val="65000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln w="3175">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-77FA-40B4-984F-9A3D8E325803}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent6">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="19050">
+              <a:ln w="3175">
                 <a:solidFill>
-                  <a:schemeClr val="lt1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-77FA-40B4-984F-9A3D8E325803}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:shade val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="3175">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-77FA-40B4-984F-9A3D8E325803}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$K$36:$K$37</c:f>
+              <c:f>Лист2!$K$3:$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -854,7 +2063,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$L$36:$L$37</c:f>
+              <c:f>Лист2!$L$3:$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -863,16 +2072,17 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DD1C-4BE5-8495-A0F1B252AB01}"/>
+              <c16:uniqueId val="{00000000-3AE0-43FD-8186-90F0BF988232}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
-          <c:showCatName val="0"/>
+          <c:showCatName val="1"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
@@ -887,11 +2097,16 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -904,9 +2119,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -923,14 +2138,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -962,12 +2193,13 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -976,11 +2208,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1009,11 +2241,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1037,17 +2269,172 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="62983E"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="62983E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-B015-4915-B14D-0E8E32062A7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="62983E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-B015-4915-B14D-0E8E32062A7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="62983E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-B015-4915-B14D-0E8E32062A7B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$N$36:$N$37</c:f>
+              <c:f>Лист2!$N$3:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1056,7 +2443,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$O$36:$O$37</c:f>
+              <c:f>Лист2!$O$3:$O$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1065,7 +2452,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B8E-4588-A385-05C2183FEFBF}"/>
+              <c16:uniqueId val="{00000000-3AE0-43FD-8186-90F0BF988232}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1074,17 +2461,91 @@
           <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:srgbClr val="70AD47">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:srgbClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                <a:prstClr val="black">
+                  <a:alpha val="20000"/>
+                </a:prstClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-32E5-4FC3-BCDE-785F3FBDE8C7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="70AD47">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-32E5-4FC3-BCDE-785F3FBDE8C7}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$N$36:$N$37</c:f>
+              <c:f>Лист2!$N$3:$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1093,7 +2554,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$P$36:$P$37</c:f>
+              <c:f>Лист2!$P$3:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1108,76 +2569,26 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B8E-4588-A385-05C2183FEFBF}"/>
+              <c16:uniqueId val="{0000000F-32E5-4FC3-BCDE-785F3FBDE8C7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="inBase"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="25"/>
         <c:overlap val="100"/>
-        <c:axId val="195739760"/>
-        <c:axId val="195741728"/>
+        <c:axId val="548460016"/>
+        <c:axId val="548459032"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="195739760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="195741728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
       <c:valAx>
-        <c:axId val="195741728"/>
+        <c:axId val="548459032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1186,19 +2597,56 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1215,9 +2663,9 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1228,10 +2676,87 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195739760"/>
+        <c:crossAx val="548460016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:catAx>
+        <c:axId val="548460016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548459032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1245,14 +2770,30 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:round/>
@@ -1278,291 +2819,268 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="26">
+  <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1578,21 +3096,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1602,23 +3118,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1627,17 +3142,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -1646,12 +3161,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1665,30 +3180,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1698,17 +3219,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1717,36 +3249,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1755,27 +3286,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1783,11 +3322,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -1795,14 +3345,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1814,12 +3364,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1828,14 +3378,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1844,9 +3393,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1856,20 +3405,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1878,11 +3426,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1890,71 +3443,81 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1967,73 +3530,110 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
           <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -2043,37 +3643,37 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2081,7 +3681,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2097,21 +3697,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2121,23 +3719,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2146,17 +3743,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2165,12 +3762,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2184,30 +3781,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2217,17 +3820,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2236,36 +3850,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2274,27 +3887,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2302,11 +3923,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2314,14 +3946,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2333,12 +3965,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2347,14 +3979,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2363,9 +3994,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2375,20 +4006,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2397,11 +4027,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2409,184 +4044,245 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="25000"/>
             <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2602,21 +4298,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2626,23 +4320,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2651,17 +4344,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -2670,12 +4363,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2689,30 +4382,36 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -2722,17 +4421,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2741,36 +4451,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2779,27 +4488,35 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2807,11 +4524,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -2819,14 +4547,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2838,12 +4566,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2852,14 +4580,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2868,9 +4595,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2880,20 +4607,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2902,11 +4628,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2914,14 +4645,1210 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln>
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="pct75">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="254000" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2931,14 +5858,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2960,16 +5887,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>103140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2993,15 +5920,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99330</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3022,16 +5949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>103140</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3052,16 +5979,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3344,109 +6271,2020 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride2.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Стандартная">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="4472C4"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Стандартная">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Стандартная">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P43"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q35" sqref="Q35"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="3" s="1" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="1:13" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="12"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="12"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="12"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="12"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="12"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="12"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="12"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="12"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="12"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="12"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="12"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="12"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="12"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="12"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="12"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="12"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="12"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="12"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="12"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="12"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="12"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="12"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="12"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="12"/>
+    </row>
+    <row r="45" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="12"/>
+    </row>
+    <row r="46" spans="1:13" s="6" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="21"/>
+    </row>
+    <row r="47" spans="1:13" s="6" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="24"/>
+    </row>
+    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>1</v>
+      </c>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="14"/>
+    </row>
+    <row r="49" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>2</v>
+      </c>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="14"/>
+    </row>
+    <row r="50" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>3</v>
+      </c>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="14"/>
+    </row>
+    <row r="51" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>4</v>
+      </c>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14"/>
+    </row>
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>5</v>
+      </c>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="14"/>
+    </row>
+    <row r="53" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>6</v>
+      </c>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14"/>
+    </row>
+    <row r="54" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>7</v>
+      </c>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14"/>
+    </row>
+    <row r="55" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>8</v>
+      </c>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>9</v>
+      </c>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>10</v>
+      </c>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="13"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="14"/>
+    </row>
+    <row r="58" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>11</v>
+      </c>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14"/>
+    </row>
+    <row r="59" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>12</v>
+      </c>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="14"/>
+    </row>
+    <row r="60" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>13</v>
+      </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="14"/>
+    </row>
+    <row r="61" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>14</v>
+      </c>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="14"/>
+    </row>
+    <row r="62" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>15</v>
+      </c>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="14"/>
+    </row>
+    <row r="63" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>16</v>
+      </c>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="14"/>
+    </row>
+    <row r="64" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>17</v>
+      </c>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="14"/>
+    </row>
+    <row r="65" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>18</v>
+      </c>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="14"/>
+    </row>
+    <row r="66" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>19</v>
+      </c>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="14"/>
+    </row>
+    <row r="67" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="9">
+        <v>20</v>
+      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="15"/>
+      <c r="K67" s="15"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="69">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="A46:M46"/>
+    <mergeCell ref="B47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="B49:I49"/>
+    <mergeCell ref="B50:I50"/>
+    <mergeCell ref="B51:I51"/>
+    <mergeCell ref="B52:I52"/>
+    <mergeCell ref="B53:I53"/>
+    <mergeCell ref="B67:I67"/>
+    <mergeCell ref="B54:I54"/>
+    <mergeCell ref="B55:I55"/>
+    <mergeCell ref="B56:I56"/>
+    <mergeCell ref="B57:I57"/>
+    <mergeCell ref="B58:I58"/>
+    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="B61:I61"/>
+    <mergeCell ref="B62:I62"/>
+    <mergeCell ref="B63:I63"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="B64:I64"/>
+    <mergeCell ref="B65:I65"/>
+    <mergeCell ref="B66:I66"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="68" fitToWidth="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
+      <c r="C2" s="31"/>
+      <c r="E2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H35" t="s">
+      <c r="F2" s="31"/>
+      <c r="H2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K35" t="s">
+      <c r="I2" s="31"/>
+      <c r="K2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="N2" t="s">
         <v>4</v>
       </c>
-      <c r="N35" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2">
-        <f>$P$35-O36</f>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1">
+        <f>$P$2-O3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2">
-        <f>$P$35-O37</f>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1">
+        <f>$P$2-O4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E10" s="4"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="E11" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A3:XFD3"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>